--- a/biology/Médecine/Günter_Blobel/Günter_Blobel.xlsx
+++ b/biology/Médecine/Günter_Blobel/Günter_Blobel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%BCnter_Blobel</t>
+          <t>Günter_Blobel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Günter Klaus-Joachim Blobel, né le 21 mai 1936 à Waltersdorf en province de Basse-Silésie et mort le 18 février 2018 à New York (État de New York[1]), est un biologiste germano-américain lauréat du prix Nobel de physiologie ou médecine en 1999.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Günter Klaus-Joachim Blobel, né le 21 mai 1936 à Waltersdorf en province de Basse-Silésie et mort le 18 février 2018 à New York (État de New York), est un biologiste germano-américain lauréat du prix Nobel de physiologie ou médecine en 1999.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%BCnter_Blobel</t>
+          <t>Günter_Blobel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Günter Blobel a fait ses études de médecine à l'université Eberhard Karl de Tübingen et a obtenu son doctorat de biologie à l'université du Wisconsin à Madison en 1967. Il a ensuite été chercheur post-doctoral à l'université Rockefeller dans le laboratoire de George Emil Palade. Il est Howard Hughes Medical Institute investigator à l'université Rockefeller de New York, aux États-Unis.
 En 1999, il a reçu le prix Nobel de physiologie ou médecine pour les processus d'étiquetage et d'adressage intracellulaire des protéines.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%BCnter_Blobel</t>
+          <t>Günter_Blobel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%BCnter_Blobel</t>
+          <t>Günter_Blobel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,7 +587,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1978 : élection à l'Académie nationale des sciences
 1982 : prix Gairdner
